--- a/resultadoCo2.xlsx
+++ b/resultadoCo2.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 1.6404*x + -2907.5485
+          <t xml:space="preserve">y = 1.6404*x + (-2907.5485)
 </t>
         </is>
       </c>
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 3264.7262*log(x) + -24441.5544
+          <t xml:space="preserve">y = 3264.7262*log(x) + (-24441.5544)
 </t>
         </is>
       </c>
@@ -499,7 +499,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 9.0358*x + 0.0000
+          <t xml:space="preserve">y = 9.0358*x + (0.0000)
 </t>
         </is>
       </c>
@@ -531,7 +531,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (49181.1661*x**2) + -50.6753*x + 0.0131 
+          <t xml:space="preserve">y = (49181.1661*x**2) + (-50.6753)*x + (0.0131) 
 </t>
         </is>
       </c>

--- a/resultadoCo2.xlsx
+++ b/resultadoCo2.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 9.0358*x + (0.0000)
+          <t xml:space="preserve">y = 0.0000*x**(9.0358)
 </t>
         </is>
       </c>

--- a/resultadoCo2.xlsx
+++ b/resultadoCo2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,27 +515,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0424*x**(1.0045)
-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>R² = 0.9855</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t xml:space="preserve">y = (49181.1661*x**2) + (-50.6753)*x + (0.0131) 
 </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>R² = 0.9949</t>
         </is>

--- a/resultadoCo2.xlsx
+++ b/resultadoCo2.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (49181.1661*x**2) + (-50.6753)*x + (0.0131) 
+          <t xml:space="preserve">y = (0.0131*x**2) + (-50.6753)*x + (49181.1661) 
 </t>
         </is>
       </c>

--- a/resultadoCo2.xlsx
+++ b/resultadoCo2.xlsx
@@ -451,13 +451,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 1.6404*x + (-2907.5485)
+          <t xml:space="preserve">y = 1.640377*x + (-2907.548516)
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R² = 0.9772</t>
+          <t>R² = 0.977225</t>
         </is>
       </c>
     </row>
@@ -467,13 +467,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 3264.7262*log(x) + (-24441.5544)
+          <t xml:space="preserve">y = 3264.726206*log(x) + (-24441.554445)
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R² = 0.9761</t>
+          <t>R² = 0.976101</t>
         </is>
       </c>
     </row>
@@ -483,13 +483,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0424*e**(0.0045*x)
+          <t xml:space="preserve">y = 0.042435*e**(0.004539*x)
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R² = 0.9855</t>
+          <t>R² = 0.985495</t>
         </is>
       </c>
     </row>
@@ -499,13 +499,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.0000*x**(9.0358)
+          <t xml:space="preserve">y = 0.000000*x**(9.035792)
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R² = 0.9847</t>
+          <t>R² = 0.984673</t>
         </is>
       </c>
     </row>
@@ -515,13 +515,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (0.0131*x**2) + (-50.6753)*x + (49181.1661) 
+          <t xml:space="preserve">y = (0.013135*x**2) + (-50.675344).x + (49181.171248) 
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R² = 0.9949</t>
+          <t>R² = 0.994874</t>
         </is>
       </c>
     </row>

--- a/resultadoCo2.xlsx
+++ b/resultadoCo2.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 1.640377*x + (-2907.548516)
+          <t xml:space="preserve">y = 1.64038*x + (-2907.55)
 </t>
         </is>
       </c>
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 3264.726206*log(x) + (-24441.554445)
+          <t xml:space="preserve">y = 3264.73*log(x) + (-24441.6)
 </t>
         </is>
       </c>
@@ -483,7 +483,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.042435*e**(0.004539*x)
+          <t xml:space="preserve">y = 0.0424349*e**(0.00453936*x)
 </t>
         </is>
       </c>
@@ -499,7 +499,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 0.000000*x**(9.035792)
+          <t xml:space="preserve">y = 5.53694e-28*x**(9.03579)
 </t>
         </is>
       </c>
@@ -515,7 +515,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (0.013135*x**2) + (-50.675344).x + (49181.171248) 
+          <t xml:space="preserve">y = (0.0131348*x**2) + (-50.6753).x + (49181.2) 
 </t>
         </is>
       </c>

--- a/resultadoCo2.xlsx
+++ b/resultadoCo2.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (0.0131348*x**2) + (-50.6753).x + (49181.2) 
+          <t xml:space="preserve">y = (0.0131348*x**2) + (-50.6753)*x + (49181.2) 
 </t>
         </is>
       </c>

--- a/resultadoCo2.xlsx
+++ b/resultadoCo2.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 3264.73*log(x) + (-24441.6)
+          <t xml:space="preserve">y = 3264.73*ln(x) + (-24441.6)
 </t>
         </is>
       </c>
@@ -515,7 +515,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = (0.0131348*x**2) + (-50.6753)*x + (49181.2) 
+          <t xml:space="preserve">y = (49181.2*x**2) + (-50.6753)*x + (0.0131348) 
 </t>
         </is>
       </c>

--- a/resultadoCo2.xlsx
+++ b/resultadoCo2.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">y = 3264.73*log(x) + (-24441.6)
+          <t xml:space="preserve">y = 3264.73*ln(x) + (-24441.6)
 </t>
         </is>
       </c>
